--- a/public/export/thoikhoabieu.xlsx
+++ b/public/export/thoikhoabieu.xlsx
@@ -3470,12 +3470,12 @@
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AA7:AA11"/>
-    <mergeCell ref="AA12:AA16"/>
-    <mergeCell ref="AA17:AA21"/>
-    <mergeCell ref="AA22:AA26"/>
-    <mergeCell ref="AA27:AA31"/>
-    <mergeCell ref="AA32:AA36"/>
+    <mergeCell ref="AA7:AA16"/>
+    <mergeCell ref="AA17:AA26"/>
+    <mergeCell ref="AA27:AA36"/>
+    <mergeCell ref="AA37:AA46"/>
+    <mergeCell ref="AA47:AA56"/>
+    <mergeCell ref="AA57:AA66"/>
     <mergeCell ref="X70:AA70"/>
     <mergeCell ref="X71:AA71"/>
     <mergeCell ref="A2:AA2"/>
